--- a/biology/Médecine/1714_en_santé_et_médecine/1714_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1714_en_santé_et_médecine/1714_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1714_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1714_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1714 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1714_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1714_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14 avril : La reine Anne effectue la dernière imposition des mains royale sur des écrouelles[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14 avril : La reine Anne effectue la dernière imposition des mains royale sur des écrouelles.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1714_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1714_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans son Traité de la cause de la digestion[2], Jean Astruc explique la sécrétion qui s'effectue dans le tube digestif[3].
-Les gravures anatomiques de Bartolomeo Eustachi († 1574) sont publiées pour la première fois, sous le titre de Tabulae anatomicae[4] par Giovanni Maria Lancisi[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans son Traité de la cause de la digestion, Jean Astruc explique la sécrétion qui s'effectue dans le tube digestif.
+Les gravures anatomiques de Bartolomeo Eustachi († 1574) sont publiées pour la première fois, sous le titre de Tabulae anatomicae par Giovanni Maria Lancisi.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1714_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1714_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +588,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>6 janvier : Percivall Pott (mort en 1788), chirurgien anglais.
-6 septembre : Robert Whytt (mort en 1766), médecin écossais[6].
+6 septembre : Robert Whytt (mort en 1766), médecin écossais.
 Alexander Wilson (mort en 1786), chirurgien, mathématicien et météorologue écossais.
-1708[7] ou 1714 : William Lewis (mort en 1781), médecin et chimiste anglais[8].</t>
+1708 ou 1714 : William Lewis (mort en 1781), médecin et chimiste anglais.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1714_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1714_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +623,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5 mai : Christian-Maximilien Spener (né en 1678), médecin et héraldiste allemand[9].
-27 juillet : Sébastien Matte La Faveur (né en 1626), chimiste et pharmacien français[10],[11], auteur, en 1671, d'une importante Pratique de chymie[12].
-1er novembre : John Radcliffe (né en 1652), médecin britannique[13].
-5 novembre : Bernardino Ramazzini (né en 1633), professeur de médecine à Padoue, un des précurseurs concernant les accidents du travail et les mesures d'hygiène et de sécurité[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mai : Christian-Maximilien Spener (né en 1678), médecin et héraldiste allemand.
+27 juillet : Sébastien Matte La Faveur (né en 1626), chimiste et pharmacien français auteur, en 1671, d'une importante Pratique de chymie.
+1er novembre : John Radcliffe (né en 1652), médecin britannique.
+5 novembre : Bernardino Ramazzini (né en 1633), professeur de médecine à Padoue, un des précurseurs concernant les accidents du travail et les mesures d'hygiène et de sécurité.</t>
         </is>
       </c>
     </row>
